--- a/excel_with_subclasses/without_zeros/posyolok_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/posyolok_with_count_without_zeros.xlsx
@@ -410,7 +410,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -430,9 +430,6 @@
           <t>Q2514025_посёлок</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>341</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -449,9 +446,6 @@
         <is>
           <t>Q2514025_посёлок</t>
         </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -491,7 +485,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -511,9 +505,7 @@
           <t>Q2989457_посёлок городского типа</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>870</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -531,9 +523,7 @@
           <t>Q2989457_посёлок городского типа</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>693</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -551,9 +541,7 @@
           <t>Q15078955_посёлок городского типа России</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>571</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -571,9 +559,7 @@
           <t>Q2989457_посёлок городского типа</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>203</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -591,9 +577,7 @@
           <t>Q2989457_посёлок городского типа</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>33</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -611,9 +595,7 @@
           <t>Q15078955_посёлок городского типа России</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>28</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -631,9 +613,7 @@
           <t>Q15078955_посёлок городского типа России,Q19507642_курортный посёлок</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>7</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -651,9 +631,7 @@
           <t>Q2989457_посёлок городского типа</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
